--- a/Data/Sleutellijst_hix_onzedata.xlsx
+++ b/Data/Sleutellijst_hix_onzedata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Dropbox\onderzoek\Decision making ENT surgery\Decision-making-ENT-surgery\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Dropbox\onderzoek\Decision-making-ENT-surgery\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -496,9 +496,6 @@
     <t>Nefroureterectomy</t>
   </si>
   <si>
-    <t>Cerical ca., resection</t>
-  </si>
-  <si>
     <t>Patients with cervical cancer</t>
   </si>
   <si>
@@ -506,6 +503,9 @@
   </si>
   <si>
     <t>Patients with mild laryngeal carcinomia</t>
+  </si>
+  <si>
+    <t>Cervical ca., resection</t>
   </si>
 </sst>
 </file>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G808"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1529,10 +1529,10 @@
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>155</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>68</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="57" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>68</v>
@@ -2368,12 +2368,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2509,15 +2506,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04A2B261-E070-4582-B105-CAD4A336EDA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE2DDD85-B311-48E3-A94D-7BCBD20ECC7E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2541,10 +2542,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE2DDD85-B311-48E3-A94D-7BCBD20ECC7E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04A2B261-E070-4582-B105-CAD4A336EDA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>